--- a/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_gene_ranking.xlsx
+++ b/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_gene_ranking.xlsx
@@ -1576,7 +1576,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Csf2rb</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Grn</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Apol7c</t>
+          <t>Grn</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Cyp26b1</t>
+          <t>Themis2</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Klri1</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Themis2</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Klri1</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ptafr</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Cyp26b1</t>
+          <t>Ptafr</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -9906,7 +9906,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Ncf2</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Il2ra</t>
+          <t>Ncf2</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>Abca1</t>
+          <t>Hlf</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -10486,7 +10486,7 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>Hlf</t>
+          <t>Abca1</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
